--- a/biology/Zoologie/Dasycercus_cristicauda/Dasycercus_cristicauda.xlsx
+++ b/biology/Zoologie/Dasycercus_cristicauda/Dasycercus_cristicauda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le rat marsupial à queue crêtée est un marsupial qui vit en Australie : au Queensland, en Australie-Occidentale et dans le Territoire du Nord. Selon l'UICN son territoire est fragmenté et ses populations réduites. Il souffre de la concurrence par les herbivores introduits et de la prédation par des espèces exogènes comme les chats et les chiens.
 </t>
